--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>29.50406809336684</v>
+        <v>29.48745386484094</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>26.86981265036421</v>
+        <v>26.85585441991509</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>20.70146244137518</v>
+        <v>20.39869337914385</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.939067517053655</v>
+        <v>10.27450251767726</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.630188892224004</v>
+        <v>7.577046597290767</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.355400405616103</v>
+        <v>5.406449221132093</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>29.48745386484094</v>
+        <v>29.31851203064848</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>26.85585441991509</v>
+        <v>26.3675529734944</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>20.39869337914385</v>
+        <v>20.70803954796096</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>10.27450251767726</v>
+        <v>10.50027259277895</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.577046597290767</v>
+        <v>7.862753710051312</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.406449221132093</v>
+        <v>5.242869145065904</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
+++ b/04_Modelling/01_benthic/03_acoustic/BRT_Output_acoustic/contrib_mod_best_fixed_reduced_logAcousticFond_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,61 +372,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LandMinDist</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B2">
-        <v>29.31851203064848</v>
+        <v>18.92366995736774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>LandMinDist</t>
         </is>
       </c>
       <c r="B3">
-        <v>26.3675529734944</v>
+        <v>17.80000289997275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B4">
-        <v>20.70803954796096</v>
+        <v>16.66457558077707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>ReefMinDist</t>
         </is>
       </c>
       <c r="B5">
-        <v>10.50027259277895</v>
+        <v>13.7835691212601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B6">
-        <v>7.862753710051312</v>
+        <v>13.23377563468042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>SSTmax</t>
         </is>
       </c>
       <c r="B7">
-        <v>5.242869145065904</v>
+        <v>10.49783151356255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SuspendedParticulateMatter</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>9.096575292379367</v>
       </c>
     </row>
   </sheetData>
